--- a/m_03/m_03_v_03_xlookup/m_03_v_03_solutions.xlsx
+++ b/m_03/m_03_v_03_xlookup/m_03_v_03_solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27404"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\advanced_analytics_excel_video_course\m_03\m_03_v_03_xlookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A51F576A-021F-4D29-AB9E-07EBD3666FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06145F39-2A6A-4835-85D7-800A1553539E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xlookup" sheetId="8" r:id="rId1"/>
@@ -171,10 +171,10 @@
     <tableColumn id="4" xr3:uid="{B9A8441C-8F6E-4200-861D-54E1DAFB6C03}" name="product_id"/>
     <tableColumn id="5" xr3:uid="{82220B8E-F7E4-4664-B59E-50A502801415}" name="quantity"/>
     <tableColumn id="6" xr3:uid="{7B1B0320-C7A7-4FFA-9221-983D02057C07}" name="total_price" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{773CABB2-4BB0-4CE0-81EA-E99F757B0B34}" name="branch_name" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{773CABB2-4BB0-4CE0-81EA-E99F757B0B34}" name="branch_name" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.XLOOKUP(transactions[[#This Row],[branch_id]], branches[branch_id], branches[branch_name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{99BFC99C-2436-45DB-810C-FCC1E6BD4CE1}" name="product_name" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{99BFC99C-2436-45DB-810C-FCC1E6BD4CE1}" name="product_name" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.XLOOKUP(transactions[[#This Row],[product_id]], products[product_id], products[product_name], "Unknown")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -493,7 +493,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
